--- a/Dataset_New.xlsx
+++ b/Dataset_New.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogeo\Desktop\Project\Blood-Brain-Barrier-Drug-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogeo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536C9365-0CD3-4C8F-A3BA-B97DB5B9ABA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E581A79-14D9-41C6-98EC-2A4F42E99952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6019,8 +6019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
-      <selection activeCell="A606" sqref="A606"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B560" sqref="B560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
